--- a/Employee_Reports21/Joe Vergil Jr Calanza Dormitorio Q0556.xlsx
+++ b/Employee_Reports21/Joe Vergil Jr Calanza Dormitorio Q0556.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -836,11 +836,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -882,11 +882,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>-322</v>
+        <v>-323</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
